--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/39_Isparta_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/39_Isparta_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00D8BFDE-FE29-4F53-A7AA-5F682CC4EA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F8C056A-132A-4617-928A-9996BAD25B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{05809CF7-5D43-4C40-B606-A1FBD3DCF5F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{71AF881B-8F1A-495C-B32B-1B4EF38C71B4}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{80CB6E68-89B4-4C1F-BAA9-7B51D0C7A3F0}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{06648793-924E-4DF1-8F37-0553BE1D62EB}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{EA596EA3-5D0F-43A8-A96C-8ADD008A1555}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{90D687EC-6FA1-4962-8729-1496C8556C84}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{954E9BFE-CB6F-425C-AFF7-667CDB76A8B1}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{33EE0B3C-F280-4403-9CEA-561B26A4EBAE}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{90C251E4-7EF1-436F-A293-B258D4637164}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1C5FB3EE-D8F9-41CA-8E4F-E8AD9B943E7B}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{975BE7A1-D636-41E6-B397-130F594686CF}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{91909E95-95DE-4B53-A3DE-3FF46F5976CB}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B9FF39D4-CC25-4409-808A-E1F69A975D38}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{BA04F38E-94EB-4FE1-BA90-887A86334EDF}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{669A2DF5-FAC3-4465-9202-6B307101C06D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C2D3AE69-5A42-4329-8EFA-F87D49D098F2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F6D839-8684-4F32-AAF3-E481C2D1D845}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9F964A-822D-485B-BF0B-316B3FAD6684}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2584,18 +2584,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A46BA153-6909-4A06-90C1-BBACFAEF38D1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE602C40-EC4E-47E3-9D9C-51367006F187}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A1F231D9-B313-47D8-980F-07501BD4C26E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3ADA15B5-1A83-4E3E-8574-DE378CE84F93}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{90CD7FFE-80AB-4A1F-A263-48AF07D75094}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C1611B10-75F8-4F0D-85F2-0CD883B38A4B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B876B850-8A4F-41EE-996F-32CFD9AAE1B7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2801BC29-41F9-437D-8094-2657DF866C60}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3AE8820-CC01-4161-BC5A-789004DD25A7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3DBDC8A8-4281-4D6A-A559-00F4407C1BC2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1F7CC587-B0E8-4748-A0FA-65299FB4B947}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F8A67A1F-697F-43CF-B74C-8A2932D8EA28}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2CB8196-A4C3-49F2-86C7-2A06D1E2B01E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{958EFCD3-33BF-4A72-B5F4-D1528476E230}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7F28C740-5B2D-4CC3-B830-38481888974C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8C17B878-7326-4437-A700-C82B4C16607F}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6803AD11-50BE-462F-800B-19A02BC94EDD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B282F8AB-DF0F-4B68-8D08-E9C97CFEF6AA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BDD2FF81-E596-44BD-ABA1-9D542E8B8DFD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5F17F8F2-CAA7-4461-9E11-929498B6E83B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{026F34C6-6FA1-4760-AF89-37A287359546}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{252DBF7D-98BA-4F56-90C6-1A40AE99EAF3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF1629F7-F930-4C84-A931-132013A0D30A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{070D6940-D673-4B64-B2D2-5E5D6369B25B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2608,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB16816-F755-4A01-84DC-F24535ECBFEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1332D79E-E5CB-4C94-A66B-E459F083803F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3853,18 +3853,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9565573C-9483-499E-A270-1342A5506A0B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BF0B3610-A2CC-45A3-8842-DCDF2B36D55B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{31653FE7-1621-448A-8EEB-566B9E015CE9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2616B08A-1441-43A3-BB9D-58188FA8AA24}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0E46C04B-407C-481B-A11D-B6925D7E93FB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F18CAFF7-BCA9-4DD1-AEB8-BE50526759E4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6AC26822-8331-4905-A491-47A23B415561}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{064151D1-DBFE-429E-9E56-B55858B8D643}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB698496-C3C5-4E0F-9600-ED0BAEA7F577}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C1F42F4-52CD-481C-A899-45CB59E41100}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FDA78070-19B3-4D02-BE24-C05E844BF32F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D49CBFF-5713-4D3B-82C9-1016843DC334}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC66641E-2D51-46FF-9475-0E3E3FA3D2D1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{899BA00D-CE8A-4903-932B-CB3230EF322E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E732C6F1-7577-4B04-A610-016CAAD25282}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A0931B25-F2DC-4548-9050-125FDFCE593E}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AC6C250B-EDFD-4623-94A1-05AFF73C0C7D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40503862-4AEA-4B08-9211-207211A315FD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF40331A-8F69-4E22-A27E-9DF1B6DD6378}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{20AFBC8B-D20E-443B-88A3-D4A9299A5480}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{216C51F8-A65F-4480-A3A3-33C0DD1DA92D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FD91C314-4230-43A6-B79E-F4847474E3F2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E7F74F1-C8B6-44C3-BF09-E8E63C841895}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E8AA7857-AF58-42CA-A331-B5B4E5953E62}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3877,7 +3877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FD18C6-0ACD-4C4E-BAF3-65DCEA3EAA4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC5A596-3DFF-413D-AB9B-967BA14C1436}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5122,18 +5122,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BBB76C93-BBDF-442F-BF27-6224994396C3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BE9D484B-BAAF-4D6A-99D2-2B59AB4C50A0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E5AFCF4E-AC72-45D3-988E-038E277DD2F8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F99A64E7-15EB-4CB7-B1F8-FA32F19AD069}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D517900B-EA4F-4294-99FE-394FFA1A1D5D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE833C69-E4BC-4172-93BC-5DC1CDE28789}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A8F3B893-8B14-4873-BF11-2B5134EB0A20}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B644376-5273-4632-8FE0-7DACF52966E9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5CD7DDA7-2095-488F-84D4-848BDE5292D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BEC76585-93E9-40A6-A139-59424F3750BC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E97B1FC-E0BD-4C32-B51A-75290BF919D1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{33B9F0B5-9995-4170-BC53-51E139576127}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56F75A75-8EE7-4A62-8499-DBDD9E34950C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C4927F5-F11C-4CDC-AF85-4C91C7AE433D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7D56D83F-22F7-41B0-A220-82AD897D1093}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA0649CD-DF04-4C3C-A838-D8173B8CAED9}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{EB28F906-3045-4707-A70B-56E2222B5866}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E302FD13-FF98-433C-A5BC-40BE3421E7C7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62119C19-1522-432F-9AF7-E2024B770970}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BB5CDDDA-86D6-4C6C-8223-48587372C95A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{50F7E21B-5456-4281-B449-68AC6F096436}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{012E8262-4528-4B61-AFFB-61710D2B538D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{46FD596B-F7C9-423C-9A80-7F575E9A95AA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{673F69EB-3845-4D96-B84A-466F8DFF06C7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5146,7 +5146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF103FB4-CCD1-42DA-A7E9-E688D887AD93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A95395B-DED2-47E6-8619-77CE3467EEEC}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6390,18 +6390,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB93BA17-903E-4894-824D-A35CD3F8677F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8EEBDDD9-30AC-4463-BF49-18DA9CE8F5B6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0A97042C-17FF-4F36-AB6F-E9F27F65B964}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A82BC8C0-A29A-4E49-B5B6-E8506B66E31A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{606019BC-623B-45E0-8F9A-84F03F3524B6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BE664770-2743-405F-B986-F4A46EE0DADA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BAF8A3A3-9330-4847-A999-15329DBFFDFE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D8D00C77-7EA5-483F-8420-08B0DED4D355}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{130F6CFD-99CD-48C9-836C-BF98E3ED3066}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BDC322A5-282F-49E3-9CC6-D406CEE17C80}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB70942D-5049-4D73-A652-04054D03701B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CCFB1C05-0A6C-4DB7-A2E0-C42AE771A7BC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E4B1101-784A-4B2C-81BA-B5F8F64D9B71}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ED61725C-0B4C-4B46-A744-FCF7FDCF0B25}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F1CADE8B-1F72-4188-8D86-98BA1D256750}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{41CBEF51-D450-4ECB-B307-B0F155B0C780}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{44E24B31-1083-4702-8E3F-30883620F42B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2EAC6473-2481-4D6F-BA50-CDC635B76745}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBD1EE99-7690-4E92-8C6C-0D1F6404BA9A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{405840EE-B1DD-4ABA-AF53-7D6A6B6A4802}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F77E277D-6B2A-4615-B2E4-02C0D667DC21}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{48E91F85-0F6B-4A2D-8D91-EE56895652B6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15EEA954-9F83-4ECD-896F-E248CBDC5F94}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1CA6C9F3-419E-49F3-A92D-7A3A81CC1C4D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6414,7 +6414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E340745-C926-429F-8B2C-0AD020D51D4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF90D284-3E5B-4288-B76A-422D0D7B674F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7667,18 +7667,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2CFCC79-12C1-4D26-8B5D-DC3B29EC5645}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{45542D17-1D54-4782-8C9B-412B9EAFFF5B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FBF01908-FBD4-4971-9964-776BB6E64FE3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{50811ACC-EEC3-4BFC-9965-42B5F8820567}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DB7B5B54-6C43-4CBC-9FF8-7B057DED6B2C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{20D45B17-AA7C-4B51-B7F9-6A97DA2D59F3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52307A0A-3CC8-4210-896C-4A628321BCF1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EC4B21E4-2B63-4F5E-B122-3018EA9DCFFF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{616AF5ED-A796-48E9-8722-EB5FEFA15590}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{45E92D14-D739-4A45-8F29-348B5EA8AEA3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B840C459-F972-4255-96D5-36A17E1A5769}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{63D5A173-274A-48D4-B695-9EC219037D00}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1BFA0C1-3CCF-4FB8-969B-4FD58034615B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3CA9B7C5-F584-4600-B849-EA14816CC404}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8E87A633-0F8B-46EF-B59F-33F52A1BD746}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0F31910C-E220-4AE1-B2A2-97D54F218E12}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{75EFB7BC-5146-451E-B715-1D43BC8CE031}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2CCB1851-9078-4FDF-8C33-0A39CBBDECCD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBECAD5E-9F52-4904-AE7C-F545A9551774}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9C198FC3-8D6B-4434-BD7B-2CC78125BB11}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{369355E6-AA42-4E33-876A-16621F2166B2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E277CF86-D213-4474-890D-D798A610E8FF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{123EED55-8F1D-4B50-97D2-C1B405A69A3C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4195A82B-C549-47CE-A1C3-CE859260E366}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7691,7 +7691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59BBDEB-709E-49F8-866E-69BC6D0A6346}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653F3479-FA74-48B5-B6A5-D974998AF9AF}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8944,18 +8944,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23F709E7-CC99-4F06-BC83-E522EDC091AF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E7412B76-117D-4084-A63C-BCF119698314}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{004AB6B6-1806-4E45-9E28-C6B73449EB22}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7832C0B7-6C54-4C30-93E6-709475FF0524}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{65B250FA-8C15-4662-B999-E0F3415D8818}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CEA3CA58-EB52-4391-8D5B-6FF45F79F9B4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4CBA898-53E8-45A9-9B85-5B0EF7B67549}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{62862F2D-DEA0-4FDD-9015-5ED638A8BB80}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8DE1377A-C93F-48FF-8842-F81DA48434CA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{992261DB-7ABD-4122-96C0-DAD901846E5A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0331248B-28A0-49C2-A89B-F9F1A3983F74}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B280EDE-944A-477A-B6F3-C24FF8B30274}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF954949-EF51-4F26-8F58-9B8BAE9186A6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B99C9925-6A7D-44BC-880C-F5F4A919C3DC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{38D6CB4D-7505-4FE7-A5DA-C2EAA9DCB2CC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0F2A662C-CAA6-416E-866E-057754A6F073}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{94DBE652-A139-4A53-A4C7-C1480BD37E7F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C3C91E14-0415-4B3E-A86C-E9EA5A6A1EEC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9134252E-0F2E-47BF-95BC-780003B17EA0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{059BEC3B-E9BE-4898-8AF6-37238914EBC4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{397FF9EE-EB36-4EEE-9C01-E1F54B9B793E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C7B7AF91-46C6-44E2-9372-A845D716721F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9655D7D7-99FD-44F4-B463-5EF07B9BD51B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{657D6C20-A1D8-486B-9C73-5C1540A3C328}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8968,7 +8968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60221D3B-1D71-47CC-99A7-4E3CF6FC26DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBAEE2B-C035-4603-95CD-901C77C5858B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10221,18 +10221,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C6BE648-99E6-45F2-9C0B-A624C7F37D48}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{64A86EE8-5812-4284-B98A-2BCE499B8294}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{303A323E-8D21-47FC-860F-88AD73A315D0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{69FBECC4-EDF9-475C-9733-C6FD395AD2FF}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{43F7FACE-2784-4582-A999-C10645FB2AF4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C76CEB04-205F-49FF-9103-40B270815AB1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{06E1471F-6DBF-4A5B-AEE4-6C303C5E533F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{80CC4943-0699-463D-A874-E1D773379F13}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D598328D-BF60-466D-98C7-C4A4B65317AA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5227E88-B26D-4FD6-8366-4E9978B32325}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{96100247-E863-4253-B4D8-33B6254F74DF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE270075-5321-4711-A79F-E57F6671C21F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{775B6347-1688-40B6-8D10-451817AF75C5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44491731-F9B5-49DC-9B87-FF1851E84E6C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4F25E75B-A273-4134-B981-49DA76624EF4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{046E3F9D-2339-4FF0-922D-223F3114DA0D}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{AB4B97EC-F7E0-41B8-92B4-4049147DA335}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3474BAE4-7B0A-40BC-9672-3AB38EA1FDD4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17E5DCF2-7B10-46D6-BF5D-C9EA12F49E98}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BA0A2931-6F95-4747-9FC9-6CEB7FF3353B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B92D4B59-AB7A-4B05-A590-9602B8B34C48}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{88DC6EAE-7313-4DDD-AC81-E07ABF08AAE1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{03A27007-2663-4340-BE71-201A8BC36943}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9153B55E-16A0-4382-9912-35F1DBE69804}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10245,7 +10245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A9A31C-1D8E-4BF9-BCFB-4D27D4ED2D91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9E4579-A0D2-495D-A506-29E362597844}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11498,18 +11498,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F68D076-A056-4FA5-92CC-F6A09E59CD0C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56764BD9-1F1B-4268-8974-3A0C2E665A81}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{97ACFCCB-024C-4CB1-965E-12B3E485A196}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7BE0249D-6F40-46E8-B171-03E10447BF51}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{E9BE102D-E4DC-4EBF-AECF-E0739A144470}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CE581C48-7A2B-43BF-BAEF-44C3E3CC16A4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3DC17E4-2F10-4D2B-AB14-AB7F915712E0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{94296A31-F7AA-468E-AB00-93A4DB45619C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1752653-3B2A-4533-8045-754EE5B7FC09}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CC83D933-5FA6-4AE9-8705-F885E1953B3C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9FBED348-E20A-4EB3-B7D3-47D0C852C851}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{587DF879-1DB8-4371-8DD4-17F0FC061171}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B4B2EC61-50A0-4C05-9FB7-4C729F472429}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BCD0A239-4F7E-4309-884C-6DA7E4190D68}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DFC6FC77-A44D-4BCD-A527-2A34205FAA7C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C8E3A574-246F-4AC3-8E6D-C5A62B085EA6}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{94B8901F-5027-4D1E-A6CF-2FAB702686F4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3E8D0FDD-5E2A-4DCE-BCAB-A95E6C089317}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4C5A5172-5874-45A0-AB00-8412407F1F06}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B8FF5B5-D519-4F84-AE0F-9AB218323C12}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5E320CF-788F-4037-958D-5DD3EE37EFFB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FBC850AF-F8E5-4628-B34F-F1E31596F329}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D87CF67-65D7-41E6-941A-F797408C57A9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2E6046EA-5F2B-4C2D-BD8A-52BD189F099C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11522,7 +11522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5446683-4006-4A2B-AF72-A4B19D87D46C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797E347F-2E08-4E5E-AF8E-9DE43F7F23BB}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12775,18 +12775,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6FE998D-060B-4CE6-808C-0EF5F9E811CE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C75FF200-4F73-4FAE-8F7E-A87A8E7A45F1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{31E89780-4314-41ED-B386-7411D987FB6B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0EFDEFAC-FA77-4251-999F-5D9E7ADD7DBC}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{219F630A-254C-4211-B854-72C1020279D1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BF9AD072-7D08-4343-8038-D8AE0E78DDEB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07371052-1CA8-4C54-AC99-86211067B239}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BA4D96BF-1E67-4F41-8FD5-E6FD53DCD423}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{15841040-F6FF-437F-AF0C-6572DFDE5C54}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6720410D-600D-482C-810F-2452E161963D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E6BEA2E-FB8A-4842-AC4C-3D8AC559FB21}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D654B2C9-1CC0-4700-AE89-BAAA7F6240D0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5DFF4259-531A-4002-AD4D-E6A663859D17}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC9D52EA-85A2-4695-865A-3F3494BF67E3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7B7868C0-229D-4C8B-A020-5CF56C2B6AE4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A8B3EA92-4A0B-4DAE-BBF5-A4C118ABDA36}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{BFE1A77F-7202-4066-ACBD-41C3039C064F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7DB65895-8BF7-48D0-B492-CE3F465C6D96}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F577990-CD9D-45B9-9728-993A2BB75F14}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B6815C97-DC99-4EB8-8795-DB64AC8CE454}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BFC61F26-4489-45DA-B526-95E2FB0E98B1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C2A782D-CC5E-44F8-AEBA-8A9273134C2B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2469A654-3678-4197-BB90-CE0A05D7BE9E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{98E44376-394E-44A2-8C14-5E275EDB511E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12799,7 +12799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAFC031-5E6A-468E-A575-AFDE2326EA86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBFBD13-F9B8-4531-ACBA-C2CF06B47227}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14052,18 +14052,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F0F74269-3338-44A0-8E2F-EBE3CF5A6068}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D038E22A-BA97-4FEC-B646-9E8FF30C3D1A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{815316EC-5E8A-47BE-A0AE-C6C041845662}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F0BA850E-3E85-4E9E-82E7-CA90296973B8}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{99184659-1A33-4087-9308-307EDE274652}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D9AEAB3F-730D-4D10-98AD-907430067B57}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{848BDB17-4953-4B16-9011-84CB47CE9FD0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{20D8039A-2D88-420B-B46F-47BC8C3F6A77}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E5EF571B-A91A-4209-9AB6-DD440839DBD6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2506A86D-05E3-4167-A178-CD0CED9FFB36}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{70FD9992-248C-4F36-BAF6-CC0A6B115FD5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7FEA1C6-65D0-4414-BE00-DE8D87DC526F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3998643A-3697-49BE-93EA-DE0ACF0FCD2E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E2DDF6B-2EB2-4407-B2C2-1C38E5B996DD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2ACD8525-2B49-4F9E-A3E2-FE119AD77818}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F8884203-A455-459F-A333-DF2748C08BCC}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0F3D7609-9ABC-4499-87BE-A3E5DF05758A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1B3B3366-74C6-4617-8047-DF412314B989}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4EF0F41B-DC91-46EE-869D-2BEA4F8E44EC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D8EA6289-5D6B-4A67-8FD7-713D67E0E4D4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{58206049-7DE5-4487-B6C1-A46925F44B9B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9514B0A9-F55A-4A6A-9396-718F4FF289B0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B301B34B-D05A-4D06-8BD1-A0BFCBA17CDE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8C9A8CC-D7EF-4313-A741-13F0C6246048}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14076,7 +14076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FACC17-51F7-4C90-920F-793EBC6AACC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7B871C-F8AC-49D4-86DC-EF06F033DE99}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15329,18 +15329,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB6EF8E7-FEED-43A2-B02D-3D1785E1ACBB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{798A44B5-EBAC-4EA2-847A-F5701BA0D8E7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{081FC15C-FE33-4345-BFB5-8F1FF9674EFE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{70068F81-EA5E-4431-B805-A6EA41A13524}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C52D7C52-AF52-40FB-A00D-B3CF3A57B132}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E9FD9012-DB5C-4D77-AD36-A7E323565717}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{080E78CB-20BC-4DC9-B69C-9DAA0C5F01D9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{85BFB5E2-0ADE-4F84-927A-48A9D77C7E36}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53DF3A18-5521-42BF-8C3D-F025F6A3BBA9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B21EFDDB-3CD4-4985-B906-50594FB3A226}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BA10F36F-90B1-45BF-A1BA-CEAA62B0AB0D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9F418298-9CCE-4BBA-B05F-89E0F2632008}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0101DA69-EAE4-41C9-80A5-04683784D65C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DB8317DA-A040-4372-BB19-7A9945802347}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4EE21921-BB42-4464-967B-198CB5F9F92A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{08543BE4-3714-4150-BCDF-1A3842F1BD99}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{56337022-4A46-4E3F-8777-17DCD87583EB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{970CBD54-B2EE-4B6F-842A-4321D0F58EAE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D07F424A-A777-4F62-9A74-B3A1A2C6266D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{170C4736-6300-4D3F-9166-ADB22557B685}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7240B9C0-A76B-40C6-8415-F9E3CEE27318}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{774155D5-0D4A-4C12-9E9C-71AEC1F55FE0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{81A1640D-7261-4149-9FD2-3FE737A6F55B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{75805E8A-808B-4A1E-BA4B-30C3E8274A2D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15353,7 +15353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7967CD3D-F87A-461F-8759-F1A24294A36E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676EF954-43A2-4384-AE6B-01A0154B9323}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16606,18 +16606,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{29B46882-8AD4-4A7A-B145-BB0A52382675}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D2BE0E4-46C1-4119-8518-8B6A49A4B670}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3FFA279B-9560-4550-9B12-A60E9BB82263}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA6C19ED-EBFF-40C3-8164-353652E76B66}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8A5C87E9-C102-4F90-9F6E-6DD27ACD26CA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AE1BB9A2-D2A1-4592-892A-0676DE5D80F9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{37794FBE-81FE-43B7-BA2C-16A9B32704E5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FA708AF0-5131-4D91-BF3C-D73C4383AC26}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28BA85E4-26C1-43C8-A9A6-013A29586FEC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B1B095AA-F2C9-406C-B42B-D291D387ABC6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE08F888-C8A7-4BDE-B71B-AC6AB944286A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9EBD03F2-CAD4-4213-96F9-B654CDF977F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C01C4841-70E3-4079-BEAA-A8E7A9C1D252}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3919128A-8EB9-4215-8343-1EDAC1C05555}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2F2CF403-20BF-45B0-A642-27C8CCEB3EF3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{81FB20BA-7F96-4DDE-B65C-1D2ED26AFFCE}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{626EFC3C-8442-478E-859F-C8A4B9218B94}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{957291E6-F1B0-4963-902B-3277A67A0B2B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A070838-8FE3-4D91-BD55-A40D64DDDA12}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EC73BE2B-052B-41F1-BA85-4574EA2583ED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0EF738C5-DB49-4159-A0E7-072840B08AFA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{402C8569-29D3-4C89-8965-42D9677C183A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{737FCF30-FC82-4133-A524-9EFFD15CB9FF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{85854B09-0A16-41F2-A8BC-07CED3BDA9D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
